--- a/data/亠-8.xlsx
+++ b/data/亠-8.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -1837,42 +1837,45 @@
     </r>
   </si>
   <si>
-    <t>亯</t>
-  </si>
-  <si>
-    <t>Hưởng thụ (cổ)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他喜欢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>受美食。 (</t>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>yè</t>
+  </si>
+  <si>
+    <t>Đêm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我喜欢在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>晚读书。 (</t>
     </r>
     <r>
       <rPr>
@@ -1883,7 +1886,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Tā xǐhuān </t>
+      <t xml:space="preserve">Wǒ xǐhuān zài </t>
     </r>
     <r>
       <rPr>
@@ -1895,7 +1898,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xiǎng</t>
+      <t>yè</t>
     </r>
     <r>
       <rPr>
@@ -1906,83 +1909,74 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>shòu měishí.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – Anh ấy thích </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thưởng thức</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ẩm thực.</t>
-    </r>
-  </si>
-  <si>
-    <t>夜</t>
-  </si>
-  <si>
-    <t>yè</t>
-  </si>
-  <si>
-    <t>Đêm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我喜欢在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>晚读书。 (</t>
-    </r>
-    <r>
-      <rPr>
+      <t>wǎn dúshū.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – Tôi thích đọc sách vào ban </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đêm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>亳</t>
+  </si>
+  <si>
+    <t>bó</t>
+  </si>
+  <si>
+    <t>Địa danh (Bạc Châu)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>州是一个历史悠久的城市。 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1990,11 +1984,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Wǒ xǐhuān zài </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Bó</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2002,7 +1995,80 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>yè</t>
+      <t>zhōu shì yí gè lìshǐ yōujiǔ de chéngshì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Châu là một thành phố có lịch sử lâu đời.</t>
+    </r>
+  </si>
+  <si>
+    <t>亵</t>
+  </si>
+  <si>
+    <t>xiè</t>
+  </si>
+  <si>
+    <t>Khinh nhờn, khinh bỉ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>渎神圣。 (</t>
     </r>
     <r>
       <rPr>
@@ -2013,28 +2079,158 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>wǎn dúshū.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – Tôi thích đọc sách vào ban </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>đêm</t>
+      <t xml:space="preserve">Bú yào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiè</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dú shénshèng.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – Đừng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>báng bổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> điều thiêng liêng.</t>
+    </r>
+  </si>
+  <si>
+    <t>亶</t>
+  </si>
+  <si>
+    <t>dǎn</t>
+  </si>
+  <si>
+    <t>Chân thành</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他说话很</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诚。 (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tā shuōhuà hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chéng.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – Anh ấy nói chuyện rất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chân thành</t>
     </r>
     <r>
       <rPr>
@@ -2048,39 +2244,48 @@
     </r>
   </si>
   <si>
-    <t>亳</t>
-  </si>
-  <si>
-    <t>bó</t>
-  </si>
-  <si>
-    <t>Địa danh (Bạc Châu)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>州是一个历史悠久的城市。 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>亷</t>
+  </si>
+  <si>
+    <t>lián</t>
+  </si>
+  <si>
+    <t>Liêm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他是个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>洁的官员。 (</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2088,10 +2293,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bó</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Tā shì gè </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2099,80 +2305,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>zhōu shì yí gè lìshǐ yōujiǔ de chéngshì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bạc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Châu là một thành phố có lịch sử lâu đời.</t>
-    </r>
-  </si>
-  <si>
-    <t>亵</t>
-  </si>
-  <si>
-    <t>xiè</t>
-  </si>
-  <si>
-    <t>Khinh nhờn, khinh bỉ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不要</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>渎神圣。 (</t>
+      <t>lián</t>
     </r>
     <r>
       <rPr>
@@ -2183,11 +2316,83 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Bú yào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>jié de guānyuán.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – Ông ấy là một quan chức </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liêm chính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>亸</t>
+  </si>
+  <si>
+    <t>duǒ</t>
+  </si>
+  <si>
+    <t>Rũ xuống, lệch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他的肩膀有点</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 (</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2195,10 +2400,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xiè</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Tā de jiānbǎng yǒudiǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2206,80 +2412,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dú shénshèng.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – Đừng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>báng bổ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> điều thiêng liêng.</t>
-    </r>
-  </si>
-  <si>
-    <t>亶</t>
-  </si>
-  <si>
-    <t>dǎn</t>
-  </si>
-  <si>
-    <t>Chân thành</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他说话很</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>诚。 (</t>
+      <t>duǒ</t>
     </r>
     <r>
       <rPr>
@@ -2290,158 +2423,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Tā shuōhuà hěn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dǎn</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chéng.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – Anh ấy nói chuyện rất </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chân thành</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>亷</t>
-  </si>
-  <si>
-    <t>lián</t>
-  </si>
-  <si>
-    <t>Liêm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他是个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>洁的官员。 (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tā shì gè </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lián</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jié de guānyuán.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – Ông ấy là một quan chức </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>liêm chính</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) – Vai của anh ấy hơi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lệch</t>
     </r>
     <r>
       <rPr>
@@ -2455,197 +2458,10 @@
     </r>
   </si>
   <si>
-    <t>亸</t>
-  </si>
-  <si>
-    <t>duǒ</t>
-  </si>
-  <si>
-    <t>Rũ xuống, lệch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他的肩膀有点</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。 (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tā de jiānbǎng yǒudiǎn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duǒ</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – Vai của anh ấy hơi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lệch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>亹</t>
   </si>
   <si>
     <t>wěi</t>
-  </si>
-  <si>
-    <t>Cố gắng, kiên trì</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亹亹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不倦地学习。 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wěi wěi</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bú juàn de xuéxí.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cố gắng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> học tập không biết mệt mỏi.</t>
-    </r>
   </si>
   <si>
     <t>Cố gắng, kiên trì, chăm chỉ</t>
@@ -3700,8 +3516,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4118,36 +3934,36 @@
         <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:6">
+    <row r="22" ht="43.2" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="1:6">
@@ -4155,39 +3971,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="1:6">
+    <row r="24" ht="28.8" spans="1:6">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:6">
@@ -4195,19 +4011,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:6">
@@ -4215,79 +4031,39 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:6">
+    <row r="27" ht="43.2" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:6">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" ht="43.2" spans="1:6">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6">
